--- a/public/import/weekly_template_Result.xlsx
+++ b/public/import/weekly_template_Result.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AMPM RETAIL MEI 2022\New folder (2)\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" forceFullCalc="1"/>
+  <calcPr forceFullCalc="1" calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12" count="12">
   <si>
     <t>year</t>
   </si>
@@ -52,17 +47,33 @@
   </si>
   <si>
     <t>VIVO</t>
+  </si>
+  <si>
+    <t>DI ISI ANGKA TANPA TITIK</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="49" formatCode="@"/>
+  </numFmts>
+  <fonts count="3">
     <font>
+      <name val="Calibri"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
+    </font>
+    <font>
       <name val="Calibri"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
     </font>
   </fonts>
   <fills count="2">
@@ -83,26 +94,29 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="bottom"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles defaultTableStyle="TableStyleMedium9" count="0"/>
 </styleSheet>
 </file>
 
@@ -325,7 +339,7 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
@@ -392,21 +406,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="C1">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.0" defaultColWidth="10"/>
   <cols>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" customWidth="1" bestFit="1" width="22.0" style="0"/>
+    <col min="4" max="4" customWidth="1" width="7.8554688" style="0"/>
+    <col min="5" max="5" customWidth="1" width="25.285156" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="8:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -423,12 +437,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="8:8" ht="15.2">
       <c r="A2">
-        <v>2022</v>
+        <v>2022.0</v>
       </c>
       <c r="B2">
-        <v>24</v>
+        <v>33.0</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>6</v>
@@ -437,15 +451,15 @@
         <v>5</v>
       </c>
       <c r="E2" s="2">
-        <v>598440044</v>
+        <v>9.1962808E7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="8:8" ht="15.2">
       <c r="A3">
-        <v>2022</v>
+        <v>2022.0</v>
       </c>
       <c r="B3">
-        <v>24</v>
+        <v>33.0</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -454,15 +468,15 @@
         <v>5</v>
       </c>
       <c r="E3" s="2">
-        <v>48941804</v>
+        <v>7816839.0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="8:8" ht="15.2">
       <c r="A4">
-        <v>2022</v>
+        <v>2022.0</v>
       </c>
       <c r="B4">
-        <v>24</v>
+        <v>33.0</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>8</v>
@@ -471,130 +485,45 @@
         <v>5</v>
       </c>
       <c r="E4" s="2">
-        <v>11901083</v>
+        <v>1523016.0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="8:8" ht="15.2">
       <c r="A5">
-        <v>2022</v>
+        <v>2022.0</v>
       </c>
       <c r="B5">
-        <v>24</v>
-      </c>
-      <c r="C5" s="1" t="s">
+        <v>33.0</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D5" t="s">
         <v>5</v>
       </c>
       <c r="E5" s="2">
-        <v>88</v>
+        <v>15.0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="8:8" ht="15.2">
       <c r="A6">
-        <v>2022</v>
+        <v>2022.0</v>
       </c>
       <c r="B6">
-        <v>24</v>
-      </c>
-      <c r="C6" s="1" t="s">
+        <v>33.0</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D6" t="s">
         <v>5</v>
       </c>
       <c r="E6" s="2">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>2022</v>
-      </c>
-      <c r="B7">
-        <v>24</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="2">
-        <v>377762609</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>2022</v>
-      </c>
-      <c r="B8">
-        <v>24</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="2">
-        <v>32109822</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>2022</v>
-      </c>
-      <c r="B9">
-        <v>24</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="2">
-        <v>6814153</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>2022</v>
-      </c>
-      <c r="B10">
-        <v>24</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="2">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>2022</v>
-      </c>
-      <c r="B11">
-        <v>24</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" s="2">
-        <v>74</v>
+        <v>20.0</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <sheetProtection sheet="0" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>